--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W15_H50_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W15_H50_B16.xlsx
@@ -518,7 +518,7 @@
         <v>0.7104247104247104</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4311377245508982</v>
+        <v>0.4820359281437126</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1650177370014621</v>
+        <v>0.09773773765838122</v>
       </c>
       <c r="J2" t="n">
-        <v>2209.324677799337</v>
+        <v>1308.710170712683</v>
       </c>
       <c r="K2" t="n">
-        <v>6926085.685122975</v>
+        <v>2460517.01553793</v>
       </c>
       <c r="L2" t="n">
-        <v>2631.745748571274</v>
+        <v>1568.603524010427</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.2843534414993496</v>
+        <v>0.5437287899048365</v>
       </c>
     </row>
   </sheetData>
